--- a/Dataset/Hemisperical space Dataset_geometry information.xlsx
+++ b/Dataset/Hemisperical space Dataset_geometry information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LX\教学程序\PROSEPCT+BRDF\PROSPECULAR_matlab\Measurements 上传用 部分数据\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE78FE73-3251-402A-B32D-C9BE2523CF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CED939-1605-4AC6-B458-E92002E6D2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="5940" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C8341551-9540-414E-B62D-F4292C25D652}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C8341551-9540-414E-B62D-F4292C25D652}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t xml:space="preserve">Source:  Xiao Li, Zhongqiu Sun, Shan Lu, Kenji Omasa, </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
   </si>
   <si>
     <t>VAA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Viewing azimuth angle (°)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,6 +241,18 @@
   </si>
   <si>
     <t>Number of leaf samples: 14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Viewing azimuth angle (°) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of SZAs: 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Number of VZAs: 42</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -612,21 +620,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,12 +638,6 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -664,6 +651,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -980,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11A298F-3DF9-461C-9092-E61A9691DBBA}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -996,7 +1004,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1024,28 +1032,28 @@
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1078,7 +1086,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>7</v>
@@ -1105,8 +1113,8 @@
       <c r="C14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>38</v>
+      <c r="D14" s="41" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
@@ -1117,21 +1125,35 @@
         <v>12</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="30"/>
+        <v>42</v>
+      </c>
+      <c r="D15" s="41"/>
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>5</v>
       </c>
       <c r="B16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="30"/>
+      <c r="D16" s="41"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1146,15 +1168,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E631E4-7275-41E4-ABA2-7DF3A102A3A5}">
   <dimension ref="A1:AT265"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="R1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AD32" sqref="AD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.375" style="47" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.375" style="40" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" style="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="37"/>
+    <col min="3" max="3" width="9" style="32"/>
     <col min="4" max="4" width="12.125" style="20" customWidth="1"/>
     <col min="5" max="41" width="9" style="22"/>
     <col min="42" max="42" width="9" style="20"/>
@@ -1162,16 +1184,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="33" t="s">
         <v>12</v>
       </c>
       <c r="E1" s="29">
@@ -1285,7 +1307,7 @@
       <c r="AO1" s="29">
         <v>60</v>
       </c>
-      <c r="AP1" s="38">
+      <c r="AP1" s="33">
         <v>60</v>
       </c>
       <c r="AQ1" s="29">
@@ -1302,147 +1324,147 @@
       </c>
     </row>
     <row r="2" spans="1:46" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="42"/>
-      <c r="B2" s="32"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="40">
+      <c r="A2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="35">
         <v>0</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="35">
         <v>10</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="35">
         <v>20</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="35">
         <v>30</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="35">
         <v>40</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="35">
         <v>50</v>
       </c>
-      <c r="K2" s="40">
+      <c r="K2" s="35">
         <v>60</v>
       </c>
-      <c r="L2" s="40">
+      <c r="L2" s="35">
         <v>60</v>
       </c>
-      <c r="M2" s="40">
+      <c r="M2" s="35">
         <v>50</v>
       </c>
-      <c r="N2" s="40">
+      <c r="N2" s="35">
         <v>40</v>
       </c>
-      <c r="O2" s="40">
+      <c r="O2" s="35">
         <v>30</v>
       </c>
-      <c r="P2" s="40">
+      <c r="P2" s="35">
         <v>20</v>
       </c>
-      <c r="Q2" s="40">
+      <c r="Q2" s="35">
         <v>10</v>
       </c>
-      <c r="R2" s="40">
+      <c r="R2" s="35">
         <v>10</v>
       </c>
-      <c r="S2" s="40">
+      <c r="S2" s="35">
         <v>20</v>
       </c>
-      <c r="T2" s="40">
+      <c r="T2" s="35">
         <v>30</v>
       </c>
-      <c r="U2" s="40">
+      <c r="U2" s="35">
         <v>40</v>
       </c>
-      <c r="V2" s="40">
+      <c r="V2" s="35">
         <v>50</v>
       </c>
-      <c r="W2" s="40">
+      <c r="W2" s="35">
         <v>60</v>
       </c>
-      <c r="X2" s="40">
+      <c r="X2" s="35">
         <v>60</v>
       </c>
-      <c r="Y2" s="40">
+      <c r="Y2" s="35">
         <v>50</v>
       </c>
-      <c r="Z2" s="40">
+      <c r="Z2" s="35">
         <v>40</v>
       </c>
-      <c r="AA2" s="40">
+      <c r="AA2" s="35">
         <v>30</v>
       </c>
-      <c r="AB2" s="40">
+      <c r="AB2" s="35">
         <v>20</v>
       </c>
-      <c r="AC2" s="40">
+      <c r="AC2" s="35">
         <v>10</v>
       </c>
-      <c r="AD2" s="40">
+      <c r="AD2" s="35">
         <v>20</v>
       </c>
-      <c r="AE2" s="40">
+      <c r="AE2" s="35">
         <v>30</v>
       </c>
-      <c r="AF2" s="40">
+      <c r="AF2" s="35">
         <v>40</v>
       </c>
-      <c r="AG2" s="40">
+      <c r="AG2" s="35">
         <v>50</v>
       </c>
-      <c r="AH2" s="40">
+      <c r="AH2" s="35">
         <v>60</v>
       </c>
-      <c r="AI2" s="40">
+      <c r="AI2" s="35">
         <v>60</v>
       </c>
-      <c r="AJ2" s="40">
+      <c r="AJ2" s="35">
         <v>50</v>
       </c>
-      <c r="AK2" s="40">
+      <c r="AK2" s="35">
         <v>40</v>
       </c>
-      <c r="AL2" s="40">
+      <c r="AL2" s="35">
         <v>30</v>
       </c>
-      <c r="AM2" s="40">
+      <c r="AM2" s="35">
         <v>20</v>
       </c>
-      <c r="AN2" s="40">
+      <c r="AN2" s="35">
         <v>10</v>
       </c>
-      <c r="AO2" s="40">
+      <c r="AO2" s="35">
         <v>10</v>
       </c>
-      <c r="AP2" s="39">
+      <c r="AP2" s="34">
         <v>20</v>
       </c>
-      <c r="AQ2" s="40">
+      <c r="AQ2" s="35">
         <v>30</v>
       </c>
-      <c r="AR2" s="40">
+      <c r="AR2" s="35">
         <v>40</v>
       </c>
-      <c r="AS2" s="40">
+      <c r="AS2" s="35">
         <v>50</v>
       </c>
-      <c r="AT2" s="40">
+      <c r="AT2" s="35">
         <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
-        <v>33</v>
+      <c r="A3" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="35">
+        <v>18</v>
+      </c>
+      <c r="C3" s="30">
         <v>20</v>
       </c>
       <c r="D3" s="24"/>
@@ -1572,13 +1594,13 @@
       </c>
     </row>
     <row r="4" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
-        <v>33</v>
+      <c r="A4" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="35">
+        <v>21</v>
+      </c>
+      <c r="C4" s="30">
         <v>30</v>
       </c>
       <c r="D4" s="24"/>
@@ -1708,13 +1730,13 @@
       </c>
     </row>
     <row r="5" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
-        <v>33</v>
+      <c r="A5" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="35">
+        <v>24</v>
+      </c>
+      <c r="C5" s="30">
         <v>40</v>
       </c>
       <c r="D5" s="24"/>
@@ -1844,13 +1866,13 @@
       </c>
     </row>
     <row r="6" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>33</v>
+      <c r="A6" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="35">
+        <v>29</v>
+      </c>
+      <c r="C6" s="30">
         <v>50</v>
       </c>
       <c r="D6" s="24"/>
@@ -1978,13 +2000,13 @@
       </c>
     </row>
     <row r="7" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>34</v>
+      <c r="A7" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="35">
+        <v>19</v>
+      </c>
+      <c r="C7" s="30">
         <v>20</v>
       </c>
       <c r="D7" s="24"/>
@@ -2114,13 +2136,13 @@
       </c>
     </row>
     <row r="8" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
-        <v>34</v>
+      <c r="A8" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="35">
+        <v>25</v>
+      </c>
+      <c r="C8" s="30">
         <v>40</v>
       </c>
       <c r="D8" s="24"/>
@@ -2250,13 +2272,13 @@
       </c>
     </row>
     <row r="9" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="44" t="s">
-        <v>34</v>
+      <c r="A9" s="37" t="s">
+        <v>33</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="35">
+        <v>30</v>
+      </c>
+      <c r="C9" s="30">
         <v>50</v>
       </c>
       <c r="D9" s="24"/>
@@ -2384,13 +2406,13 @@
       </c>
     </row>
     <row r="10" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
-        <v>37</v>
+      <c r="A10" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="35">
+        <v>26</v>
+      </c>
+      <c r="C10" s="30">
         <v>40</v>
       </c>
       <c r="D10" s="24"/>
@@ -2520,13 +2542,13 @@
       </c>
     </row>
     <row r="11" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="45" t="s">
-        <v>37</v>
+      <c r="A11" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="35">
+        <v>31</v>
+      </c>
+      <c r="C11" s="30">
         <v>50</v>
       </c>
       <c r="D11" s="24"/>
@@ -2654,13 +2676,13 @@
       </c>
     </row>
     <row r="12" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>36</v>
+      <c r="A12" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="35">
+        <v>22</v>
+      </c>
+      <c r="C12" s="30">
         <v>30</v>
       </c>
       <c r="D12" s="24"/>
@@ -2790,13 +2812,13 @@
       </c>
     </row>
     <row r="13" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>36</v>
+      <c r="A13" s="39" t="s">
+        <v>35</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="35">
+        <v>27</v>
+      </c>
+      <c r="C13" s="30">
         <v>40</v>
       </c>
       <c r="D13" s="24"/>
@@ -2926,13 +2948,13 @@
       </c>
     </row>
     <row r="14" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
-        <v>35</v>
+      <c r="A14" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="35">
+        <v>20</v>
+      </c>
+      <c r="C14" s="30">
         <v>20</v>
       </c>
       <c r="D14" s="24"/>
@@ -3062,13 +3084,13 @@
       </c>
     </row>
     <row r="15" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
-        <v>35</v>
+      <c r="A15" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="35">
+        <v>23</v>
+      </c>
+      <c r="C15" s="30">
         <v>30</v>
       </c>
       <c r="D15" s="24"/>
@@ -3198,13 +3220,13 @@
       </c>
     </row>
     <row r="16" spans="1:46" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="44" t="s">
-        <v>35</v>
+      <c r="A16" s="37" t="s">
+        <v>34</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="35">
+        <v>28</v>
+      </c>
+      <c r="C16" s="30">
         <v>40</v>
       </c>
       <c r="D16" s="24"/>
@@ -3334,7 +3356,7 @@
       </c>
     </row>
     <row r="17" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C17" s="36"/>
+      <c r="C17" s="31"/>
       <c r="E17" s="21"/>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -3379,7 +3401,7 @@
       <c r="AT17" s="21"/>
     </row>
     <row r="18" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C18" s="36"/>
+      <c r="C18" s="31"/>
       <c r="E18" s="21"/>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -3424,7 +3446,7 @@
       <c r="AT18" s="21"/>
     </row>
     <row r="19" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C19" s="36"/>
+      <c r="C19" s="31"/>
       <c r="E19" s="21"/>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -3469,7 +3491,7 @@
       <c r="AT19" s="21"/>
     </row>
     <row r="20" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C20" s="36"/>
+      <c r="C20" s="31"/>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -3514,7 +3536,7 @@
       <c r="AT20" s="21"/>
     </row>
     <row r="21" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C21" s="36"/>
+      <c r="C21" s="31"/>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -3559,7 +3581,7 @@
       <c r="AT21" s="21"/>
     </row>
     <row r="22" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C22" s="36"/>
+      <c r="C22" s="31"/>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -3604,7 +3626,7 @@
       <c r="AT22" s="21"/>
     </row>
     <row r="23" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C23" s="36"/>
+      <c r="C23" s="31"/>
       <c r="E23" s="21"/>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -3649,7 +3671,7 @@
       <c r="AT23" s="21"/>
     </row>
     <row r="24" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C24" s="36"/>
+      <c r="C24" s="31"/>
       <c r="E24" s="21"/>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -3694,7 +3716,7 @@
       <c r="AT24" s="21"/>
     </row>
     <row r="25" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C25" s="36"/>
+      <c r="C25" s="31"/>
       <c r="E25" s="21"/>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -3739,7 +3761,7 @@
       <c r="AT25" s="21"/>
     </row>
     <row r="26" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C26" s="36"/>
+      <c r="C26" s="31"/>
       <c r="E26" s="21"/>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -3784,7 +3806,7 @@
       <c r="AT26" s="21"/>
     </row>
     <row r="27" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C27" s="36"/>
+      <c r="C27" s="31"/>
       <c r="E27" s="21"/>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -3829,7 +3851,7 @@
       <c r="AT27" s="21"/>
     </row>
     <row r="28" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C28" s="36"/>
+      <c r="C28" s="31"/>
       <c r="E28" s="21"/>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -3874,7 +3896,7 @@
       <c r="AT28" s="21"/>
     </row>
     <row r="29" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C29" s="36"/>
+      <c r="C29" s="31"/>
       <c r="E29" s="21"/>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -3919,7 +3941,7 @@
       <c r="AT29" s="21"/>
     </row>
     <row r="30" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C30" s="36"/>
+      <c r="C30" s="31"/>
       <c r="E30" s="21"/>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -3964,7 +3986,7 @@
       <c r="AT30" s="21"/>
     </row>
     <row r="31" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C31" s="36"/>
+      <c r="C31" s="31"/>
       <c r="E31" s="21"/>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -4009,7 +4031,7 @@
       <c r="AT31" s="21"/>
     </row>
     <row r="32" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C32" s="36"/>
+      <c r="C32" s="31"/>
       <c r="E32" s="21"/>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -4054,7 +4076,7 @@
       <c r="AT32" s="21"/>
     </row>
     <row r="33" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C33" s="36"/>
+      <c r="C33" s="31"/>
       <c r="E33" s="21"/>
       <c r="F33" s="21"/>
       <c r="G33" s="21"/>
@@ -4099,7 +4121,7 @@
       <c r="AT33" s="21"/>
     </row>
     <row r="34" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C34" s="36"/>
+      <c r="C34" s="31"/>
       <c r="E34" s="21"/>
       <c r="F34" s="21"/>
       <c r="G34" s="21"/>
@@ -4144,7 +4166,7 @@
       <c r="AT34" s="21"/>
     </row>
     <row r="35" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C35" s="36"/>
+      <c r="C35" s="31"/>
       <c r="E35" s="21"/>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -4189,7 +4211,7 @@
       <c r="AT35" s="21"/>
     </row>
     <row r="36" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C36" s="36"/>
+      <c r="C36" s="31"/>
       <c r="E36" s="21"/>
       <c r="F36" s="21"/>
       <c r="G36" s="21"/>
@@ -4234,7 +4256,7 @@
       <c r="AT36" s="21"/>
     </row>
     <row r="37" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C37" s="36"/>
+      <c r="C37" s="31"/>
       <c r="E37" s="21"/>
       <c r="F37" s="21"/>
       <c r="G37" s="21"/>
@@ -4279,7 +4301,7 @@
       <c r="AT37" s="21"/>
     </row>
     <row r="38" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C38" s="36"/>
+      <c r="C38" s="31"/>
       <c r="E38" s="21"/>
       <c r="F38" s="21"/>
       <c r="G38" s="21"/>
@@ -4324,7 +4346,7 @@
       <c r="AT38" s="21"/>
     </row>
     <row r="39" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C39" s="36"/>
+      <c r="C39" s="31"/>
       <c r="E39" s="21"/>
       <c r="F39" s="21"/>
       <c r="G39" s="21"/>
@@ -4369,7 +4391,7 @@
       <c r="AT39" s="21"/>
     </row>
     <row r="40" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C40" s="36"/>
+      <c r="C40" s="31"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
@@ -4414,7 +4436,7 @@
       <c r="AT40" s="21"/>
     </row>
     <row r="41" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C41" s="36"/>
+      <c r="C41" s="31"/>
       <c r="E41" s="21"/>
       <c r="F41" s="21"/>
       <c r="G41" s="21"/>
@@ -4459,7 +4481,7 @@
       <c r="AT41" s="21"/>
     </row>
     <row r="42" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C42" s="36"/>
+      <c r="C42" s="31"/>
       <c r="E42" s="21"/>
       <c r="F42" s="21"/>
       <c r="G42" s="21"/>
@@ -4504,7 +4526,7 @@
       <c r="AT42" s="21"/>
     </row>
     <row r="43" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C43" s="36"/>
+      <c r="C43" s="31"/>
       <c r="E43" s="21"/>
       <c r="F43" s="21"/>
       <c r="G43" s="21"/>
@@ -4549,7 +4571,7 @@
       <c r="AT43" s="21"/>
     </row>
     <row r="44" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C44" s="36"/>
+      <c r="C44" s="31"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
@@ -4594,7 +4616,7 @@
       <c r="AT44" s="21"/>
     </row>
     <row r="45" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C45" s="36"/>
+      <c r="C45" s="31"/>
       <c r="E45" s="21"/>
       <c r="F45" s="21"/>
       <c r="G45" s="21"/>
@@ -4639,7 +4661,7 @@
       <c r="AT45" s="21"/>
     </row>
     <row r="46" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C46" s="36"/>
+      <c r="C46" s="31"/>
       <c r="E46" s="21"/>
       <c r="F46" s="21"/>
       <c r="G46" s="21"/>
@@ -4684,7 +4706,7 @@
       <c r="AT46" s="21"/>
     </row>
     <row r="47" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C47" s="36"/>
+      <c r="C47" s="31"/>
       <c r="E47" s="21"/>
       <c r="F47" s="21"/>
       <c r="G47" s="21"/>
@@ -4729,7 +4751,7 @@
       <c r="AT47" s="21"/>
     </row>
     <row r="48" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C48" s="36"/>
+      <c r="C48" s="31"/>
       <c r="E48" s="21"/>
       <c r="F48" s="21"/>
       <c r="G48" s="21"/>
@@ -4774,7 +4796,7 @@
       <c r="AT48" s="21"/>
     </row>
     <row r="49" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C49" s="36"/>
+      <c r="C49" s="31"/>
       <c r="E49" s="21"/>
       <c r="F49" s="21"/>
       <c r="G49" s="21"/>
@@ -4819,7 +4841,7 @@
       <c r="AT49" s="21"/>
     </row>
     <row r="50" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C50" s="36"/>
+      <c r="C50" s="31"/>
       <c r="E50" s="21"/>
       <c r="F50" s="21"/>
       <c r="G50" s="21"/>
@@ -4864,7 +4886,7 @@
       <c r="AT50" s="21"/>
     </row>
     <row r="51" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C51" s="36"/>
+      <c r="C51" s="31"/>
       <c r="E51" s="21"/>
       <c r="F51" s="21"/>
       <c r="G51" s="21"/>
@@ -4909,7 +4931,7 @@
       <c r="AT51" s="21"/>
     </row>
     <row r="52" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C52" s="36"/>
+      <c r="C52" s="31"/>
       <c r="E52" s="21"/>
       <c r="F52" s="21"/>
       <c r="G52" s="21"/>
@@ -4954,7 +4976,7 @@
       <c r="AT52" s="21"/>
     </row>
     <row r="53" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C53" s="36"/>
+      <c r="C53" s="31"/>
       <c r="E53" s="21"/>
       <c r="F53" s="21"/>
       <c r="G53" s="21"/>
@@ -4999,7 +5021,7 @@
       <c r="AT53" s="21"/>
     </row>
     <row r="54" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C54" s="36"/>
+      <c r="C54" s="31"/>
       <c r="E54" s="21"/>
       <c r="F54" s="21"/>
       <c r="G54" s="21"/>
@@ -5040,7 +5062,7 @@
       <c r="AT54" s="21"/>
     </row>
     <row r="55" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C55" s="36"/>
+      <c r="C55" s="31"/>
       <c r="E55" s="21"/>
       <c r="F55" s="21"/>
       <c r="G55" s="21"/>
@@ -5081,7 +5103,7 @@
       <c r="AT55" s="21"/>
     </row>
     <row r="56" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C56" s="36"/>
+      <c r="C56" s="31"/>
       <c r="E56" s="21"/>
       <c r="F56" s="21"/>
       <c r="G56" s="21"/>
@@ -5122,7 +5144,7 @@
       <c r="AT56" s="21"/>
     </row>
     <row r="57" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C57" s="36"/>
+      <c r="C57" s="31"/>
       <c r="E57" s="21"/>
       <c r="F57" s="21"/>
       <c r="G57" s="21"/>
@@ -5163,7 +5185,7 @@
       <c r="AT57" s="21"/>
     </row>
     <row r="58" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C58" s="36"/>
+      <c r="C58" s="31"/>
       <c r="E58" s="21"/>
       <c r="F58" s="21"/>
       <c r="G58" s="21"/>
@@ -5204,7 +5226,7 @@
       <c r="AT58" s="21"/>
     </row>
     <row r="59" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C59" s="36"/>
+      <c r="C59" s="31"/>
       <c r="E59" s="21"/>
       <c r="F59" s="21"/>
       <c r="G59" s="21"/>
@@ -5245,7 +5267,7 @@
       <c r="AT59" s="21"/>
     </row>
     <row r="60" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C60" s="36"/>
+      <c r="C60" s="31"/>
       <c r="E60" s="21"/>
       <c r="F60" s="21"/>
       <c r="G60" s="21"/>
@@ -5286,7 +5308,7 @@
       <c r="AT60" s="21"/>
     </row>
     <row r="61" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C61" s="36"/>
+      <c r="C61" s="31"/>
       <c r="E61" s="21"/>
       <c r="F61" s="21"/>
       <c r="G61" s="21"/>
@@ -5327,7 +5349,7 @@
       <c r="AT61" s="21"/>
     </row>
     <row r="62" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C62" s="36"/>
+      <c r="C62" s="31"/>
       <c r="E62" s="21"/>
       <c r="F62" s="21"/>
       <c r="G62" s="21"/>
@@ -5368,7 +5390,7 @@
       <c r="AT62" s="21"/>
     </row>
     <row r="63" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C63" s="36"/>
+      <c r="C63" s="31"/>
       <c r="E63" s="21"/>
       <c r="F63" s="21"/>
       <c r="G63" s="21"/>
@@ -5409,7 +5431,7 @@
       <c r="AT63" s="21"/>
     </row>
     <row r="64" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C64" s="36"/>
+      <c r="C64" s="31"/>
       <c r="E64" s="21"/>
       <c r="F64" s="21"/>
       <c r="G64" s="21"/>
@@ -5450,7 +5472,7 @@
       <c r="AT64" s="21"/>
     </row>
     <row r="65" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C65" s="36"/>
+      <c r="C65" s="31"/>
       <c r="E65" s="21"/>
       <c r="F65" s="21"/>
       <c r="G65" s="21"/>
@@ -5491,7 +5513,7 @@
       <c r="AT65" s="21"/>
     </row>
     <row r="66" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C66" s="36"/>
+      <c r="C66" s="31"/>
       <c r="E66" s="21"/>
       <c r="F66" s="21"/>
       <c r="G66" s="21"/>
@@ -5532,7 +5554,7 @@
       <c r="AT66" s="21"/>
     </row>
     <row r="67" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C67" s="36"/>
+      <c r="C67" s="31"/>
       <c r="E67" s="21"/>
       <c r="F67" s="21"/>
       <c r="G67" s="21"/>
@@ -5573,7 +5595,7 @@
       <c r="AT67" s="21"/>
     </row>
     <row r="68" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C68" s="36"/>
+      <c r="C68" s="31"/>
       <c r="E68" s="21"/>
       <c r="F68" s="21"/>
       <c r="G68" s="21"/>
@@ -5614,7 +5636,7 @@
       <c r="AT68" s="21"/>
     </row>
     <row r="69" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C69" s="36"/>
+      <c r="C69" s="31"/>
       <c r="E69" s="21"/>
       <c r="F69" s="21"/>
       <c r="G69" s="21"/>
@@ -5655,7 +5677,7 @@
       <c r="AT69" s="21"/>
     </row>
     <row r="70" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C70" s="36"/>
+      <c r="C70" s="31"/>
       <c r="E70" s="21"/>
       <c r="F70" s="21"/>
       <c r="G70" s="21"/>
@@ -5696,7 +5718,7 @@
       <c r="AT70" s="21"/>
     </row>
     <row r="71" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C71" s="36"/>
+      <c r="C71" s="31"/>
       <c r="E71" s="21"/>
       <c r="F71" s="21"/>
       <c r="G71" s="21"/>
@@ -5737,7 +5759,7 @@
       <c r="AT71" s="21"/>
     </row>
     <row r="72" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C72" s="36"/>
+      <c r="C72" s="31"/>
       <c r="E72" s="21"/>
       <c r="F72" s="21"/>
       <c r="G72" s="21"/>
@@ -5778,7 +5800,7 @@
       <c r="AT72" s="21"/>
     </row>
     <row r="73" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C73" s="36"/>
+      <c r="C73" s="31"/>
       <c r="E73" s="21"/>
       <c r="F73" s="21"/>
       <c r="G73" s="21"/>
@@ -5819,7 +5841,7 @@
       <c r="AT73" s="21"/>
     </row>
     <row r="74" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C74" s="36"/>
+      <c r="C74" s="31"/>
       <c r="E74" s="21"/>
       <c r="F74" s="21"/>
       <c r="G74" s="21"/>
@@ -5860,7 +5882,7 @@
       <c r="AT74" s="21"/>
     </row>
     <row r="75" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C75" s="36"/>
+      <c r="C75" s="31"/>
       <c r="E75" s="21"/>
       <c r="F75" s="21"/>
       <c r="G75" s="21"/>
@@ -5901,7 +5923,7 @@
       <c r="AT75" s="21"/>
     </row>
     <row r="76" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C76" s="36"/>
+      <c r="C76" s="31"/>
       <c r="E76" s="21"/>
       <c r="F76" s="21"/>
       <c r="G76" s="21"/>
@@ -5942,7 +5964,7 @@
       <c r="AT76" s="21"/>
     </row>
     <row r="77" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C77" s="36"/>
+      <c r="C77" s="31"/>
       <c r="E77" s="21"/>
       <c r="F77" s="21"/>
       <c r="G77" s="21"/>
@@ -5983,7 +6005,7 @@
       <c r="AT77" s="21"/>
     </row>
     <row r="78" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C78" s="36"/>
+      <c r="C78" s="31"/>
       <c r="E78" s="21"/>
       <c r="F78" s="21"/>
       <c r="G78" s="21"/>
@@ -6024,7 +6046,7 @@
       <c r="AT78" s="21"/>
     </row>
     <row r="79" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C79" s="36"/>
+      <c r="C79" s="31"/>
       <c r="E79" s="21"/>
       <c r="F79" s="21"/>
       <c r="G79" s="21"/>
@@ -6065,7 +6087,7 @@
       <c r="AT79" s="21"/>
     </row>
     <row r="80" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C80" s="36"/>
+      <c r="C80" s="31"/>
       <c r="E80" s="21"/>
       <c r="F80" s="21"/>
       <c r="G80" s="21"/>
@@ -6106,7 +6128,7 @@
       <c r="AT80" s="21"/>
     </row>
     <row r="81" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C81" s="36"/>
+      <c r="C81" s="31"/>
       <c r="E81" s="21"/>
       <c r="F81" s="21"/>
       <c r="G81" s="21"/>
@@ -6147,7 +6169,7 @@
       <c r="AT81" s="21"/>
     </row>
     <row r="82" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C82" s="36"/>
+      <c r="C82" s="31"/>
       <c r="E82" s="21"/>
       <c r="F82" s="21"/>
       <c r="G82" s="21"/>
@@ -6188,7 +6210,7 @@
       <c r="AT82" s="21"/>
     </row>
     <row r="83" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C83" s="36"/>
+      <c r="C83" s="31"/>
       <c r="E83" s="21"/>
       <c r="F83" s="21"/>
       <c r="G83" s="21"/>
@@ -6229,7 +6251,7 @@
       <c r="AT83" s="21"/>
     </row>
     <row r="84" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C84" s="36"/>
+      <c r="C84" s="31"/>
       <c r="E84" s="21"/>
       <c r="F84" s="21"/>
       <c r="G84" s="21"/>
@@ -6270,7 +6292,7 @@
       <c r="AT84" s="21"/>
     </row>
     <row r="85" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C85" s="36"/>
+      <c r="C85" s="31"/>
       <c r="E85" s="21"/>
       <c r="F85" s="21"/>
       <c r="G85" s="21"/>
@@ -6315,7 +6337,7 @@
       <c r="AT85" s="21"/>
     </row>
     <row r="86" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C86" s="36"/>
+      <c r="C86" s="31"/>
       <c r="E86" s="21"/>
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
@@ -6360,7 +6382,7 @@
       <c r="AT86" s="21"/>
     </row>
     <row r="87" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C87" s="36"/>
+      <c r="C87" s="31"/>
       <c r="E87" s="21"/>
       <c r="F87" s="21"/>
       <c r="G87" s="21"/>
@@ -6405,7 +6427,7 @@
       <c r="AT87" s="21"/>
     </row>
     <row r="88" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C88" s="36"/>
+      <c r="C88" s="31"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21"/>
       <c r="G88" s="21"/>
@@ -6450,7 +6472,7 @@
       <c r="AT88" s="21"/>
     </row>
     <row r="89" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C89" s="36"/>
+      <c r="C89" s="31"/>
       <c r="E89" s="21"/>
       <c r="F89" s="21"/>
       <c r="G89" s="21"/>
@@ -6495,7 +6517,7 @@
       <c r="AT89" s="21"/>
     </row>
     <row r="90" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C90" s="36"/>
+      <c r="C90" s="31"/>
       <c r="E90" s="21"/>
       <c r="F90" s="21"/>
       <c r="G90" s="21"/>
@@ -6540,7 +6562,7 @@
       <c r="AT90" s="21"/>
     </row>
     <row r="91" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C91" s="36"/>
+      <c r="C91" s="31"/>
       <c r="E91" s="21"/>
       <c r="F91" s="21"/>
       <c r="G91" s="21"/>
@@ -6585,7 +6607,7 @@
       <c r="AT91" s="21"/>
     </row>
     <row r="92" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C92" s="36"/>
+      <c r="C92" s="31"/>
       <c r="E92" s="21"/>
       <c r="F92" s="21"/>
       <c r="G92" s="21"/>
@@ -6630,7 +6652,7 @@
       <c r="AT92" s="21"/>
     </row>
     <row r="93" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C93" s="36"/>
+      <c r="C93" s="31"/>
       <c r="E93" s="21"/>
       <c r="F93" s="21"/>
       <c r="G93" s="21"/>
@@ -6675,7 +6697,7 @@
       <c r="AT93" s="21"/>
     </row>
     <row r="94" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C94" s="36"/>
+      <c r="C94" s="31"/>
       <c r="E94" s="21"/>
       <c r="F94" s="21"/>
       <c r="G94" s="21"/>
@@ -6720,7 +6742,7 @@
       <c r="AT94" s="21"/>
     </row>
     <row r="95" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C95" s="36"/>
+      <c r="C95" s="31"/>
       <c r="E95" s="21"/>
       <c r="F95" s="21"/>
       <c r="G95" s="21"/>
@@ -6765,7 +6787,7 @@
       <c r="AT95" s="21"/>
     </row>
     <row r="96" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C96" s="36"/>
+      <c r="C96" s="31"/>
       <c r="E96" s="21"/>
       <c r="F96" s="21"/>
       <c r="G96" s="21"/>
@@ -6810,7 +6832,7 @@
       <c r="AT96" s="21"/>
     </row>
     <row r="97" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C97" s="36"/>
+      <c r="C97" s="31"/>
       <c r="E97" s="21"/>
       <c r="F97" s="21"/>
       <c r="G97" s="21"/>
@@ -6855,7 +6877,7 @@
       <c r="AT97" s="21"/>
     </row>
     <row r="98" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C98" s="36"/>
+      <c r="C98" s="31"/>
       <c r="E98" s="21"/>
       <c r="F98" s="21"/>
       <c r="G98" s="21"/>
@@ -6900,7 +6922,7 @@
       <c r="AT98" s="21"/>
     </row>
     <row r="99" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C99" s="36"/>
+      <c r="C99" s="31"/>
       <c r="E99" s="21"/>
       <c r="F99" s="21"/>
       <c r="G99" s="21"/>
@@ -6945,7 +6967,7 @@
       <c r="AT99" s="21"/>
     </row>
     <row r="100" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C100" s="36"/>
+      <c r="C100" s="31"/>
       <c r="E100" s="21"/>
       <c r="F100" s="21"/>
       <c r="G100" s="21"/>
@@ -6990,7 +7012,7 @@
       <c r="AT100" s="21"/>
     </row>
     <row r="101" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C101" s="36"/>
+      <c r="C101" s="31"/>
       <c r="E101" s="21"/>
       <c r="F101" s="21"/>
       <c r="G101" s="21"/>
@@ -7035,7 +7057,7 @@
       <c r="AT101" s="21"/>
     </row>
     <row r="102" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C102" s="36"/>
+      <c r="C102" s="31"/>
       <c r="E102" s="21"/>
       <c r="F102" s="21"/>
       <c r="G102" s="21"/>
@@ -7080,7 +7102,7 @@
       <c r="AT102" s="21"/>
     </row>
     <row r="103" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C103" s="36"/>
+      <c r="C103" s="31"/>
       <c r="E103" s="21"/>
       <c r="F103" s="21"/>
       <c r="G103" s="21"/>
@@ -7125,7 +7147,7 @@
       <c r="AT103" s="21"/>
     </row>
     <row r="104" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C104" s="36"/>
+      <c r="C104" s="31"/>
       <c r="E104" s="21"/>
       <c r="F104" s="21"/>
       <c r="G104" s="21"/>
@@ -7170,7 +7192,7 @@
       <c r="AT104" s="21"/>
     </row>
     <row r="105" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C105" s="36"/>
+      <c r="C105" s="31"/>
       <c r="E105" s="21"/>
       <c r="F105" s="21"/>
       <c r="G105" s="21"/>
@@ -7215,7 +7237,7 @@
       <c r="AT105" s="21"/>
     </row>
     <row r="106" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C106" s="36"/>
+      <c r="C106" s="31"/>
       <c r="E106" s="21"/>
       <c r="F106" s="21"/>
       <c r="G106" s="21"/>
@@ -7260,7 +7282,7 @@
       <c r="AT106" s="21"/>
     </row>
     <row r="107" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C107" s="36"/>
+      <c r="C107" s="31"/>
       <c r="E107" s="21"/>
       <c r="F107" s="21"/>
       <c r="G107" s="21"/>
@@ -7305,7 +7327,7 @@
       <c r="AT107" s="21"/>
     </row>
     <row r="108" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C108" s="36"/>
+      <c r="C108" s="31"/>
       <c r="E108" s="21"/>
       <c r="F108" s="21"/>
       <c r="G108" s="21"/>
@@ -7350,7 +7372,7 @@
       <c r="AT108" s="21"/>
     </row>
     <row r="109" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C109" s="36"/>
+      <c r="C109" s="31"/>
       <c r="E109" s="21"/>
       <c r="F109" s="21"/>
       <c r="G109" s="21"/>
@@ -7395,7 +7417,7 @@
       <c r="AT109" s="21"/>
     </row>
     <row r="110" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C110" s="36"/>
+      <c r="C110" s="31"/>
       <c r="E110" s="21"/>
       <c r="F110" s="21"/>
       <c r="G110" s="21"/>
@@ -7440,7 +7462,7 @@
       <c r="AT110" s="21"/>
     </row>
     <row r="111" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C111" s="36"/>
+      <c r="C111" s="31"/>
       <c r="E111" s="21"/>
       <c r="F111" s="21"/>
       <c r="G111" s="21"/>
@@ -7485,7 +7507,7 @@
       <c r="AT111" s="21"/>
     </row>
     <row r="112" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C112" s="36"/>
+      <c r="C112" s="31"/>
       <c r="E112" s="21"/>
       <c r="F112" s="21"/>
       <c r="G112" s="21"/>
@@ -7530,7 +7552,7 @@
       <c r="AT112" s="21"/>
     </row>
     <row r="113" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C113" s="36"/>
+      <c r="C113" s="31"/>
       <c r="E113" s="21"/>
       <c r="F113" s="21"/>
       <c r="G113" s="21"/>
@@ -7575,7 +7597,7 @@
       <c r="AT113" s="21"/>
     </row>
     <row r="114" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C114" s="36"/>
+      <c r="C114" s="31"/>
       <c r="E114" s="21"/>
       <c r="F114" s="21"/>
       <c r="G114" s="21"/>
@@ -7620,7 +7642,7 @@
       <c r="AT114" s="21"/>
     </row>
     <row r="115" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C115" s="36"/>
+      <c r="C115" s="31"/>
       <c r="E115" s="21"/>
       <c r="F115" s="21"/>
       <c r="G115" s="21"/>
@@ -7665,7 +7687,7 @@
       <c r="AT115" s="21"/>
     </row>
     <row r="116" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C116" s="36"/>
+      <c r="C116" s="31"/>
       <c r="E116" s="21"/>
       <c r="F116" s="21"/>
       <c r="G116" s="21"/>
@@ -7710,7 +7732,7 @@
       <c r="AT116" s="21"/>
     </row>
     <row r="117" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C117" s="36"/>
+      <c r="C117" s="31"/>
       <c r="E117" s="21"/>
       <c r="F117" s="21"/>
       <c r="G117" s="21"/>
@@ -7755,7 +7777,7 @@
       <c r="AT117" s="21"/>
     </row>
     <row r="118" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C118" s="36"/>
+      <c r="C118" s="31"/>
       <c r="E118" s="21"/>
       <c r="F118" s="21"/>
       <c r="G118" s="21"/>
@@ -7800,7 +7822,7 @@
       <c r="AT118" s="21"/>
     </row>
     <row r="119" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C119" s="36"/>
+      <c r="C119" s="31"/>
       <c r="E119" s="21"/>
       <c r="F119" s="21"/>
       <c r="G119" s="21"/>
@@ -7845,7 +7867,7 @@
       <c r="AT119" s="21"/>
     </row>
     <row r="120" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C120" s="36"/>
+      <c r="C120" s="31"/>
       <c r="E120" s="21"/>
       <c r="F120" s="21"/>
       <c r="G120" s="21"/>
@@ -7890,7 +7912,7 @@
       <c r="AT120" s="21"/>
     </row>
     <row r="121" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C121" s="36"/>
+      <c r="C121" s="31"/>
       <c r="E121" s="21"/>
       <c r="F121" s="21"/>
       <c r="G121" s="21"/>
@@ -7935,7 +7957,7 @@
       <c r="AT121" s="21"/>
     </row>
     <row r="122" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C122" s="36"/>
+      <c r="C122" s="31"/>
       <c r="E122" s="21"/>
       <c r="F122" s="21"/>
       <c r="G122" s="21"/>
@@ -7980,7 +8002,7 @@
       <c r="AT122" s="21"/>
     </row>
     <row r="123" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C123" s="36"/>
+      <c r="C123" s="31"/>
       <c r="E123" s="21"/>
       <c r="F123" s="21"/>
       <c r="G123" s="21"/>
@@ -8025,7 +8047,7 @@
       <c r="AT123" s="21"/>
     </row>
     <row r="124" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C124" s="36"/>
+      <c r="C124" s="31"/>
       <c r="E124" s="21"/>
       <c r="F124" s="21"/>
       <c r="G124" s="21"/>
@@ -8070,7 +8092,7 @@
       <c r="AT124" s="21"/>
     </row>
     <row r="125" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C125" s="36"/>
+      <c r="C125" s="31"/>
       <c r="E125" s="21"/>
       <c r="F125" s="21"/>
       <c r="G125" s="21"/>
@@ -8115,7 +8137,7 @@
       <c r="AT125" s="21"/>
     </row>
     <row r="126" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C126" s="36"/>
+      <c r="C126" s="31"/>
       <c r="E126" s="21"/>
       <c r="F126" s="21"/>
       <c r="G126" s="21"/>
@@ -8160,7 +8182,7 @@
       <c r="AT126" s="21"/>
     </row>
     <row r="127" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C127" s="36"/>
+      <c r="C127" s="31"/>
       <c r="E127" s="21"/>
       <c r="F127" s="21"/>
       <c r="G127" s="21"/>
@@ -8205,7 +8227,7 @@
       <c r="AT127" s="21"/>
     </row>
     <row r="128" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C128" s="36"/>
+      <c r="C128" s="31"/>
       <c r="E128" s="21"/>
       <c r="F128" s="21"/>
       <c r="G128" s="21"/>
@@ -8250,7 +8272,7 @@
       <c r="AT128" s="21"/>
     </row>
     <row r="129" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C129" s="36"/>
+      <c r="C129" s="31"/>
       <c r="E129" s="21"/>
       <c r="F129" s="21"/>
       <c r="G129" s="21"/>
@@ -8295,7 +8317,7 @@
       <c r="AT129" s="21"/>
     </row>
     <row r="130" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C130" s="36"/>
+      <c r="C130" s="31"/>
       <c r="E130" s="21"/>
       <c r="F130" s="21"/>
       <c r="G130" s="21"/>
@@ -8340,7 +8362,7 @@
       <c r="AT130" s="21"/>
     </row>
     <row r="131" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C131" s="36"/>
+      <c r="C131" s="31"/>
       <c r="E131" s="21"/>
       <c r="F131" s="21"/>
       <c r="G131" s="21"/>
@@ -8385,7 +8407,7 @@
       <c r="AT131" s="21"/>
     </row>
     <row r="132" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C132" s="36"/>
+      <c r="C132" s="31"/>
       <c r="E132" s="21"/>
       <c r="F132" s="21"/>
       <c r="G132" s="21"/>
@@ -8430,7 +8452,7 @@
       <c r="AT132" s="21"/>
     </row>
     <row r="133" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C133" s="36"/>
+      <c r="C133" s="31"/>
       <c r="E133" s="21"/>
       <c r="F133" s="21"/>
       <c r="G133" s="21"/>
@@ -8475,7 +8497,7 @@
       <c r="AT133" s="21"/>
     </row>
     <row r="134" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C134" s="36"/>
+      <c r="C134" s="31"/>
       <c r="E134" s="21"/>
       <c r="F134" s="21"/>
       <c r="G134" s="21"/>
@@ -8520,7 +8542,7 @@
       <c r="AT134" s="21"/>
     </row>
     <row r="135" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C135" s="36"/>
+      <c r="C135" s="31"/>
       <c r="E135" s="21"/>
       <c r="F135" s="21"/>
       <c r="G135" s="21"/>
@@ -8565,7 +8587,7 @@
       <c r="AT135" s="21"/>
     </row>
     <row r="136" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C136" s="36"/>
+      <c r="C136" s="31"/>
       <c r="E136" s="21"/>
       <c r="F136" s="21"/>
       <c r="G136" s="21"/>
@@ -8610,7 +8632,7 @@
       <c r="AT136" s="21"/>
     </row>
     <row r="137" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C137" s="36"/>
+      <c r="C137" s="31"/>
       <c r="E137" s="21"/>
       <c r="F137" s="21"/>
       <c r="G137" s="21"/>
@@ -8655,7 +8677,7 @@
       <c r="AT137" s="21"/>
     </row>
     <row r="138" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C138" s="36"/>
+      <c r="C138" s="31"/>
       <c r="E138" s="21"/>
       <c r="F138" s="21"/>
       <c r="G138" s="21"/>
@@ -8700,7 +8722,7 @@
       <c r="AT138" s="21"/>
     </row>
     <row r="139" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C139" s="36"/>
+      <c r="C139" s="31"/>
       <c r="E139" s="21"/>
       <c r="F139" s="21"/>
       <c r="G139" s="21"/>
@@ -8745,7 +8767,7 @@
       <c r="AT139" s="21"/>
     </row>
     <row r="140" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C140" s="36"/>
+      <c r="C140" s="31"/>
       <c r="E140" s="21"/>
       <c r="F140" s="21"/>
       <c r="G140" s="21"/>
@@ -8790,7 +8812,7 @@
       <c r="AT140" s="21"/>
     </row>
     <row r="141" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C141" s="36"/>
+      <c r="C141" s="31"/>
       <c r="E141" s="21"/>
       <c r="F141" s="21"/>
       <c r="G141" s="21"/>
@@ -8835,7 +8857,7 @@
       <c r="AT141" s="21"/>
     </row>
     <row r="142" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C142" s="36"/>
+      <c r="C142" s="31"/>
       <c r="E142" s="21"/>
       <c r="F142" s="21"/>
       <c r="G142" s="21"/>
@@ -8880,7 +8902,7 @@
       <c r="AT142" s="21"/>
     </row>
     <row r="143" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C143" s="36"/>
+      <c r="C143" s="31"/>
       <c r="E143" s="21"/>
       <c r="F143" s="21"/>
       <c r="G143" s="21"/>
@@ -8925,7 +8947,7 @@
       <c r="AT143" s="21"/>
     </row>
     <row r="144" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C144" s="36"/>
+      <c r="C144" s="31"/>
       <c r="E144" s="21"/>
       <c r="F144" s="21"/>
       <c r="G144" s="21"/>
@@ -8970,7 +8992,7 @@
       <c r="AT144" s="21"/>
     </row>
     <row r="145" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C145" s="36"/>
+      <c r="C145" s="31"/>
       <c r="E145" s="21"/>
       <c r="F145" s="21"/>
       <c r="G145" s="21"/>
@@ -9015,7 +9037,7 @@
       <c r="AT145" s="21"/>
     </row>
     <row r="146" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C146" s="36"/>
+      <c r="C146" s="31"/>
       <c r="E146" s="21"/>
       <c r="F146" s="21"/>
       <c r="G146" s="21"/>
@@ -9060,7 +9082,7 @@
       <c r="AT146" s="21"/>
     </row>
     <row r="147" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C147" s="36"/>
+      <c r="C147" s="31"/>
       <c r="E147" s="21"/>
       <c r="F147" s="21"/>
       <c r="G147" s="21"/>
@@ -9105,7 +9127,7 @@
       <c r="AT147" s="21"/>
     </row>
     <row r="148" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C148" s="36"/>
+      <c r="C148" s="31"/>
       <c r="E148" s="21"/>
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
@@ -9150,7 +9172,7 @@
       <c r="AT148" s="21"/>
     </row>
     <row r="149" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C149" s="36"/>
+      <c r="C149" s="31"/>
       <c r="E149" s="21"/>
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
@@ -9195,7 +9217,7 @@
       <c r="AT149" s="21"/>
     </row>
     <row r="150" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C150" s="36"/>
+      <c r="C150" s="31"/>
       <c r="E150" s="21"/>
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
@@ -9240,7 +9262,7 @@
       <c r="AT150" s="21"/>
     </row>
     <row r="151" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C151" s="36"/>
+      <c r="C151" s="31"/>
       <c r="E151" s="21"/>
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
@@ -9285,7 +9307,7 @@
       <c r="AT151" s="21"/>
     </row>
     <row r="152" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C152" s="36"/>
+      <c r="C152" s="31"/>
       <c r="E152" s="21"/>
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
@@ -9330,7 +9352,7 @@
       <c r="AT152" s="21"/>
     </row>
     <row r="153" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C153" s="36"/>
+      <c r="C153" s="31"/>
       <c r="E153" s="21"/>
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
@@ -9375,7 +9397,7 @@
       <c r="AT153" s="21"/>
     </row>
     <row r="154" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C154" s="36"/>
+      <c r="C154" s="31"/>
       <c r="E154" s="21"/>
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
@@ -9420,7 +9442,7 @@
       <c r="AT154" s="21"/>
     </row>
     <row r="155" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C155" s="36"/>
+      <c r="C155" s="31"/>
       <c r="E155" s="21"/>
       <c r="F155" s="21"/>
       <c r="G155" s="21"/>
@@ -9465,7 +9487,7 @@
       <c r="AT155" s="21"/>
     </row>
     <row r="156" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C156" s="36"/>
+      <c r="C156" s="31"/>
       <c r="E156" s="21"/>
       <c r="F156" s="21"/>
       <c r="G156" s="21"/>
@@ -9510,7 +9532,7 @@
       <c r="AT156" s="21"/>
     </row>
     <row r="157" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C157" s="36"/>
+      <c r="C157" s="31"/>
       <c r="E157" s="21"/>
       <c r="F157" s="21"/>
       <c r="G157" s="21"/>
@@ -9555,7 +9577,7 @@
       <c r="AT157" s="21"/>
     </row>
     <row r="158" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C158" s="36"/>
+      <c r="C158" s="31"/>
       <c r="E158" s="21"/>
       <c r="F158" s="21"/>
       <c r="G158" s="21"/>
@@ -9600,7 +9622,7 @@
       <c r="AT158" s="21"/>
     </row>
     <row r="159" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C159" s="36"/>
+      <c r="C159" s="31"/>
       <c r="E159" s="21"/>
       <c r="F159" s="21"/>
       <c r="G159" s="21"/>
@@ -9645,7 +9667,7 @@
       <c r="AT159" s="21"/>
     </row>
     <row r="160" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C160" s="36"/>
+      <c r="C160" s="31"/>
       <c r="E160" s="21"/>
       <c r="F160" s="21"/>
       <c r="G160" s="21"/>
@@ -9690,7 +9712,7 @@
       <c r="AT160" s="21"/>
     </row>
     <row r="161" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C161" s="36"/>
+      <c r="C161" s="31"/>
       <c r="E161" s="21"/>
       <c r="F161" s="21"/>
       <c r="G161" s="21"/>
@@ -9735,7 +9757,7 @@
       <c r="AT161" s="21"/>
     </row>
     <row r="162" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C162" s="36"/>
+      <c r="C162" s="31"/>
       <c r="E162" s="21"/>
       <c r="F162" s="21"/>
       <c r="G162" s="21"/>
@@ -9780,7 +9802,7 @@
       <c r="AT162" s="21"/>
     </row>
     <row r="163" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C163" s="36"/>
+      <c r="C163" s="31"/>
       <c r="E163" s="21"/>
       <c r="F163" s="21"/>
       <c r="G163" s="21"/>
@@ -9825,7 +9847,7 @@
       <c r="AT163" s="21"/>
     </row>
     <row r="164" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C164" s="36"/>
+      <c r="C164" s="31"/>
       <c r="E164" s="21"/>
       <c r="F164" s="21"/>
       <c r="G164" s="21"/>
@@ -9870,7 +9892,7 @@
       <c r="AT164" s="21"/>
     </row>
     <row r="165" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C165" s="36"/>
+      <c r="C165" s="31"/>
       <c r="E165" s="21"/>
       <c r="F165" s="21"/>
       <c r="G165" s="21"/>
@@ -9915,7 +9937,7 @@
       <c r="AT165" s="21"/>
     </row>
     <row r="166" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C166" s="36"/>
+      <c r="C166" s="31"/>
       <c r="E166" s="21"/>
       <c r="F166" s="21"/>
       <c r="G166" s="21"/>
@@ -9960,7 +9982,7 @@
       <c r="AT166" s="21"/>
     </row>
     <row r="167" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C167" s="36"/>
+      <c r="C167" s="31"/>
       <c r="E167" s="21"/>
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
@@ -10005,7 +10027,7 @@
       <c r="AT167" s="21"/>
     </row>
     <row r="168" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C168" s="36"/>
+      <c r="C168" s="31"/>
       <c r="E168" s="21"/>
       <c r="F168" s="21"/>
       <c r="G168" s="21"/>
@@ -10050,7 +10072,7 @@
       <c r="AT168" s="21"/>
     </row>
     <row r="169" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C169" s="36"/>
+      <c r="C169" s="31"/>
       <c r="E169" s="21"/>
       <c r="F169" s="21"/>
       <c r="G169" s="21"/>
@@ -10095,7 +10117,7 @@
       <c r="AT169" s="21"/>
     </row>
     <row r="170" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C170" s="36"/>
+      <c r="C170" s="31"/>
       <c r="E170" s="21"/>
       <c r="F170" s="21"/>
       <c r="G170" s="21"/>
@@ -10140,7 +10162,7 @@
       <c r="AT170" s="21"/>
     </row>
     <row r="171" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C171" s="36"/>
+      <c r="C171" s="31"/>
       <c r="E171" s="21"/>
       <c r="F171" s="21"/>
       <c r="G171" s="21"/>
@@ -10185,7 +10207,7 @@
       <c r="AT171" s="21"/>
     </row>
     <row r="172" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C172" s="36"/>
+      <c r="C172" s="31"/>
       <c r="E172" s="21"/>
       <c r="F172" s="21"/>
       <c r="G172" s="21"/>
@@ -10230,7 +10252,7 @@
       <c r="AT172" s="21"/>
     </row>
     <row r="173" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C173" s="36"/>
+      <c r="C173" s="31"/>
       <c r="E173" s="21"/>
       <c r="F173" s="21"/>
       <c r="G173" s="21"/>
@@ -10275,7 +10297,7 @@
       <c r="AT173" s="21"/>
     </row>
     <row r="174" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C174" s="36"/>
+      <c r="C174" s="31"/>
       <c r="E174" s="21"/>
       <c r="F174" s="21"/>
       <c r="G174" s="21"/>
@@ -10320,7 +10342,7 @@
       <c r="AT174" s="21"/>
     </row>
     <row r="175" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C175" s="36"/>
+      <c r="C175" s="31"/>
       <c r="E175" s="21"/>
       <c r="F175" s="21"/>
       <c r="G175" s="21"/>
@@ -10365,7 +10387,7 @@
       <c r="AT175" s="21"/>
     </row>
     <row r="176" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C176" s="36"/>
+      <c r="C176" s="31"/>
       <c r="E176" s="21"/>
       <c r="F176" s="21"/>
       <c r="G176" s="21"/>
@@ -10410,7 +10432,7 @@
       <c r="AT176" s="21"/>
     </row>
     <row r="177" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C177" s="36"/>
+      <c r="C177" s="31"/>
       <c r="E177" s="21"/>
       <c r="F177" s="21"/>
       <c r="G177" s="21"/>
@@ -10455,7 +10477,7 @@
       <c r="AT177" s="21"/>
     </row>
     <row r="178" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C178" s="36"/>
+      <c r="C178" s="31"/>
       <c r="E178" s="21"/>
       <c r="F178" s="21"/>
       <c r="G178" s="21"/>
@@ -10500,7 +10522,7 @@
       <c r="AT178" s="21"/>
     </row>
     <row r="179" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C179" s="36"/>
+      <c r="C179" s="31"/>
       <c r="E179" s="21"/>
       <c r="F179" s="21"/>
       <c r="G179" s="21"/>
@@ -10545,7 +10567,7 @@
       <c r="AT179" s="21"/>
     </row>
     <row r="180" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C180" s="36"/>
+      <c r="C180" s="31"/>
       <c r="E180" s="21"/>
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
@@ -10590,7 +10612,7 @@
       <c r="AT180" s="21"/>
     </row>
     <row r="181" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C181" s="36"/>
+      <c r="C181" s="31"/>
       <c r="E181" s="21"/>
       <c r="F181" s="21"/>
       <c r="G181" s="21"/>
@@ -10635,7 +10657,7 @@
       <c r="AT181" s="21"/>
     </row>
     <row r="182" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C182" s="36"/>
+      <c r="C182" s="31"/>
       <c r="E182" s="21"/>
       <c r="F182" s="21"/>
       <c r="G182" s="21"/>
@@ -10680,7 +10702,7 @@
       <c r="AT182" s="21"/>
     </row>
     <row r="183" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C183" s="36"/>
+      <c r="C183" s="31"/>
       <c r="E183" s="21"/>
       <c r="F183" s="21"/>
       <c r="G183" s="21"/>
@@ -10725,7 +10747,7 @@
       <c r="AT183" s="21"/>
     </row>
     <row r="184" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C184" s="36"/>
+      <c r="C184" s="31"/>
       <c r="E184" s="21"/>
       <c r="F184" s="21"/>
       <c r="G184" s="21"/>
@@ -10770,7 +10792,7 @@
       <c r="AT184" s="21"/>
     </row>
     <row r="185" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C185" s="36"/>
+      <c r="C185" s="31"/>
       <c r="E185" s="21"/>
       <c r="F185" s="21"/>
       <c r="G185" s="21"/>
@@ -10815,7 +10837,7 @@
       <c r="AT185" s="21"/>
     </row>
     <row r="186" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C186" s="36"/>
+      <c r="C186" s="31"/>
       <c r="E186" s="21"/>
       <c r="F186" s="21"/>
       <c r="G186" s="21"/>
@@ -10860,7 +10882,7 @@
       <c r="AT186" s="21"/>
     </row>
     <row r="187" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C187" s="36"/>
+      <c r="C187" s="31"/>
       <c r="E187" s="21"/>
       <c r="F187" s="21"/>
       <c r="G187" s="21"/>
@@ -10905,7 +10927,7 @@
       <c r="AT187" s="21"/>
     </row>
     <row r="188" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C188" s="36"/>
+      <c r="C188" s="31"/>
       <c r="E188" s="21"/>
       <c r="F188" s="21"/>
       <c r="G188" s="21"/>
@@ -10950,7 +10972,7 @@
       <c r="AT188" s="21"/>
     </row>
     <row r="189" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C189" s="36"/>
+      <c r="C189" s="31"/>
       <c r="E189" s="21"/>
       <c r="F189" s="21"/>
       <c r="G189" s="21"/>
@@ -10995,7 +11017,7 @@
       <c r="AT189" s="21"/>
     </row>
     <row r="190" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C190" s="36"/>
+      <c r="C190" s="31"/>
       <c r="E190" s="21"/>
       <c r="F190" s="21"/>
       <c r="G190" s="21"/>
@@ -11040,7 +11062,7 @@
       <c r="AT190" s="21"/>
     </row>
     <row r="191" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C191" s="36"/>
+      <c r="C191" s="31"/>
       <c r="E191" s="21"/>
       <c r="F191" s="21"/>
       <c r="G191" s="21"/>
@@ -11085,7 +11107,7 @@
       <c r="AT191" s="21"/>
     </row>
     <row r="192" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C192" s="36"/>
+      <c r="C192" s="31"/>
       <c r="E192" s="21"/>
       <c r="F192" s="21"/>
       <c r="G192" s="21"/>
@@ -11130,7 +11152,7 @@
       <c r="AT192" s="21"/>
     </row>
     <row r="193" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C193" s="36"/>
+      <c r="C193" s="31"/>
       <c r="E193" s="21"/>
       <c r="F193" s="21"/>
       <c r="G193" s="21"/>
@@ -11175,7 +11197,7 @@
       <c r="AT193" s="21"/>
     </row>
     <row r="194" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C194" s="36"/>
+      <c r="C194" s="31"/>
       <c r="E194" s="21"/>
       <c r="F194" s="21"/>
       <c r="G194" s="21"/>
@@ -11220,7 +11242,7 @@
       <c r="AT194" s="21"/>
     </row>
     <row r="195" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C195" s="36"/>
+      <c r="C195" s="31"/>
       <c r="E195" s="21"/>
       <c r="F195" s="21"/>
       <c r="G195" s="21"/>
@@ -11265,7 +11287,7 @@
       <c r="AT195" s="21"/>
     </row>
     <row r="196" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C196" s="36"/>
+      <c r="C196" s="31"/>
       <c r="E196" s="21"/>
       <c r="F196" s="21"/>
       <c r="G196" s="21"/>
@@ -11310,7 +11332,7 @@
       <c r="AT196" s="21"/>
     </row>
     <row r="197" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C197" s="36"/>
+      <c r="C197" s="31"/>
       <c r="E197" s="21"/>
       <c r="F197" s="21"/>
       <c r="G197" s="21"/>
@@ -11355,7 +11377,7 @@
       <c r="AT197" s="21"/>
     </row>
     <row r="198" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C198" s="36"/>
+      <c r="C198" s="31"/>
       <c r="E198" s="21"/>
       <c r="F198" s="21"/>
       <c r="G198" s="21"/>
@@ -11400,7 +11422,7 @@
       <c r="AT198" s="21"/>
     </row>
     <row r="199" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C199" s="36"/>
+      <c r="C199" s="31"/>
       <c r="E199" s="21"/>
       <c r="F199" s="21"/>
       <c r="G199" s="21"/>
@@ -11445,7 +11467,7 @@
       <c r="AT199" s="21"/>
     </row>
     <row r="200" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C200" s="36"/>
+      <c r="C200" s="31"/>
       <c r="E200" s="21"/>
       <c r="F200" s="21"/>
       <c r="G200" s="21"/>
@@ -11490,7 +11512,7 @@
       <c r="AT200" s="21"/>
     </row>
     <row r="201" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C201" s="36"/>
+      <c r="C201" s="31"/>
       <c r="E201" s="21"/>
       <c r="F201" s="21"/>
       <c r="G201" s="21"/>
@@ -11535,7 +11557,7 @@
       <c r="AT201" s="21"/>
     </row>
     <row r="202" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C202" s="36"/>
+      <c r="C202" s="31"/>
       <c r="E202" s="21"/>
       <c r="F202" s="21"/>
       <c r="G202" s="21"/>
@@ -11580,7 +11602,7 @@
       <c r="AT202" s="21"/>
     </row>
     <row r="203" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C203" s="36"/>
+      <c r="C203" s="31"/>
       <c r="E203" s="21"/>
       <c r="F203" s="21"/>
       <c r="G203" s="21"/>
@@ -11625,7 +11647,7 @@
       <c r="AT203" s="21"/>
     </row>
     <row r="204" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C204" s="36"/>
+      <c r="C204" s="31"/>
       <c r="E204" s="21"/>
       <c r="F204" s="21"/>
       <c r="G204" s="21"/>
@@ -11670,7 +11692,7 @@
       <c r="AT204" s="21"/>
     </row>
     <row r="205" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C205" s="36"/>
+      <c r="C205" s="31"/>
       <c r="E205" s="21"/>
       <c r="F205" s="21"/>
       <c r="G205" s="21"/>
@@ -11715,7 +11737,7 @@
       <c r="AT205" s="21"/>
     </row>
     <row r="206" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C206" s="36"/>
+      <c r="C206" s="31"/>
       <c r="E206" s="21"/>
       <c r="F206" s="21"/>
       <c r="G206" s="21"/>
@@ -11760,7 +11782,7 @@
       <c r="AT206" s="21"/>
     </row>
     <row r="207" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C207" s="36"/>
+      <c r="C207" s="31"/>
       <c r="E207" s="21"/>
       <c r="F207" s="21"/>
       <c r="G207" s="21"/>
@@ -11805,7 +11827,7 @@
       <c r="AT207" s="21"/>
     </row>
     <row r="208" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C208" s="36"/>
+      <c r="C208" s="31"/>
       <c r="E208" s="21"/>
       <c r="F208" s="21"/>
       <c r="G208" s="21"/>
@@ -11850,7 +11872,7 @@
       <c r="AT208" s="21"/>
     </row>
     <row r="209" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C209" s="36"/>
+      <c r="C209" s="31"/>
       <c r="E209" s="21"/>
       <c r="F209" s="21"/>
       <c r="G209" s="21"/>
@@ -11895,7 +11917,7 @@
       <c r="AT209" s="21"/>
     </row>
     <row r="210" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C210" s="36"/>
+      <c r="C210" s="31"/>
       <c r="E210" s="21"/>
       <c r="F210" s="21"/>
       <c r="G210" s="21"/>
@@ -11940,7 +11962,7 @@
       <c r="AT210" s="21"/>
     </row>
     <row r="211" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C211" s="36"/>
+      <c r="C211" s="31"/>
       <c r="E211" s="21"/>
       <c r="F211" s="21"/>
       <c r="G211" s="21"/>
@@ -11985,7 +12007,7 @@
       <c r="AT211" s="21"/>
     </row>
     <row r="212" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C212" s="36"/>
+      <c r="C212" s="31"/>
       <c r="E212" s="21"/>
       <c r="F212" s="21"/>
       <c r="G212" s="21"/>
@@ -12030,7 +12052,7 @@
       <c r="AT212" s="21"/>
     </row>
     <row r="213" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C213" s="36"/>
+      <c r="C213" s="31"/>
       <c r="E213" s="21"/>
       <c r="F213" s="21"/>
       <c r="G213" s="21"/>
@@ -12075,7 +12097,7 @@
       <c r="AT213" s="21"/>
     </row>
     <row r="214" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C214" s="36"/>
+      <c r="C214" s="31"/>
       <c r="E214" s="21"/>
       <c r="F214" s="21"/>
       <c r="G214" s="21"/>
@@ -12120,7 +12142,7 @@
       <c r="AT214" s="21"/>
     </row>
     <row r="215" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C215" s="36"/>
+      <c r="C215" s="31"/>
       <c r="E215" s="21"/>
       <c r="F215" s="21"/>
       <c r="G215" s="21"/>
@@ -12165,7 +12187,7 @@
       <c r="AT215" s="21"/>
     </row>
     <row r="216" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C216" s="36"/>
+      <c r="C216" s="31"/>
       <c r="E216" s="21"/>
       <c r="F216" s="21"/>
       <c r="G216" s="21"/>
@@ -12210,7 +12232,7 @@
       <c r="AT216" s="21"/>
     </row>
     <row r="217" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C217" s="36"/>
+      <c r="C217" s="31"/>
       <c r="E217" s="21"/>
       <c r="F217" s="21"/>
       <c r="G217" s="21"/>
@@ -12255,7 +12277,7 @@
       <c r="AT217" s="21"/>
     </row>
     <row r="218" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C218" s="36"/>
+      <c r="C218" s="31"/>
       <c r="E218" s="21"/>
       <c r="F218" s="21"/>
       <c r="G218" s="21"/>
@@ -12300,7 +12322,7 @@
       <c r="AT218" s="21"/>
     </row>
     <row r="219" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C219" s="36"/>
+      <c r="C219" s="31"/>
       <c r="E219" s="21"/>
       <c r="F219" s="21"/>
       <c r="G219" s="21"/>
@@ -12345,7 +12367,7 @@
       <c r="AT219" s="21"/>
     </row>
     <row r="220" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C220" s="36"/>
+      <c r="C220" s="31"/>
       <c r="E220" s="21"/>
       <c r="F220" s="21"/>
       <c r="G220" s="21"/>
@@ -12390,7 +12412,7 @@
       <c r="AT220" s="21"/>
     </row>
     <row r="221" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C221" s="36"/>
+      <c r="C221" s="31"/>
       <c r="E221" s="21"/>
       <c r="F221" s="21"/>
       <c r="G221" s="21"/>
@@ -12435,7 +12457,7 @@
       <c r="AT221" s="21"/>
     </row>
     <row r="222" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C222" s="36"/>
+      <c r="C222" s="31"/>
       <c r="E222" s="21"/>
       <c r="F222" s="21"/>
       <c r="G222" s="21"/>
@@ -12480,7 +12502,7 @@
       <c r="AT222" s="21"/>
     </row>
     <row r="223" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C223" s="36"/>
+      <c r="C223" s="31"/>
       <c r="E223" s="21"/>
       <c r="F223" s="21"/>
       <c r="G223" s="21"/>
@@ -12525,7 +12547,7 @@
       <c r="AT223" s="21"/>
     </row>
     <row r="224" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C224" s="36"/>
+      <c r="C224" s="31"/>
       <c r="E224" s="21"/>
       <c r="F224" s="21"/>
       <c r="G224" s="21"/>
@@ -12570,7 +12592,7 @@
       <c r="AT224" s="21"/>
     </row>
     <row r="225" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C225" s="36"/>
+      <c r="C225" s="31"/>
       <c r="E225" s="21"/>
       <c r="F225" s="21"/>
       <c r="G225" s="21"/>
@@ -12615,7 +12637,7 @@
       <c r="AT225" s="21"/>
     </row>
     <row r="226" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C226" s="36"/>
+      <c r="C226" s="31"/>
       <c r="E226" s="21"/>
       <c r="F226" s="21"/>
       <c r="G226" s="21"/>
@@ -12660,7 +12682,7 @@
       <c r="AT226" s="21"/>
     </row>
     <row r="227" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C227" s="36"/>
+      <c r="C227" s="31"/>
       <c r="E227" s="21"/>
       <c r="F227" s="21"/>
       <c r="G227" s="21"/>
@@ -12705,7 +12727,7 @@
       <c r="AT227" s="21"/>
     </row>
     <row r="228" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C228" s="36"/>
+      <c r="C228" s="31"/>
       <c r="E228" s="21"/>
       <c r="F228" s="21"/>
       <c r="G228" s="21"/>
@@ -12750,7 +12772,7 @@
       <c r="AT228" s="21"/>
     </row>
     <row r="229" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C229" s="36"/>
+      <c r="C229" s="31"/>
       <c r="E229" s="21"/>
       <c r="F229" s="21"/>
       <c r="G229" s="21"/>
@@ -12795,7 +12817,7 @@
       <c r="AT229" s="21"/>
     </row>
     <row r="230" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C230" s="36"/>
+      <c r="C230" s="31"/>
       <c r="E230" s="21"/>
       <c r="F230" s="21"/>
       <c r="G230" s="21"/>
@@ -12840,7 +12862,7 @@
       <c r="AT230" s="21"/>
     </row>
     <row r="231" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C231" s="36"/>
+      <c r="C231" s="31"/>
       <c r="E231" s="21"/>
       <c r="F231" s="21"/>
       <c r="G231" s="21"/>
@@ -12885,7 +12907,7 @@
       <c r="AT231" s="21"/>
     </row>
     <row r="232" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C232" s="36"/>
+      <c r="C232" s="31"/>
       <c r="E232" s="21"/>
       <c r="F232" s="21"/>
       <c r="G232" s="21"/>
@@ -12930,7 +12952,7 @@
       <c r="AT232" s="21"/>
     </row>
     <row r="233" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C233" s="36"/>
+      <c r="C233" s="31"/>
       <c r="E233" s="21"/>
       <c r="F233" s="21"/>
       <c r="G233" s="21"/>
@@ -12975,7 +12997,7 @@
       <c r="AT233" s="21"/>
     </row>
     <row r="234" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C234" s="36"/>
+      <c r="C234" s="31"/>
       <c r="E234" s="21"/>
       <c r="F234" s="21"/>
       <c r="G234" s="21"/>
@@ -13020,7 +13042,7 @@
       <c r="AT234" s="21"/>
     </row>
     <row r="235" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C235" s="36"/>
+      <c r="C235" s="31"/>
       <c r="E235" s="21"/>
       <c r="F235" s="21"/>
       <c r="G235" s="21"/>
@@ -13065,7 +13087,7 @@
       <c r="AT235" s="21"/>
     </row>
     <row r="236" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C236" s="36"/>
+      <c r="C236" s="31"/>
       <c r="E236" s="21"/>
       <c r="F236" s="21"/>
       <c r="G236" s="21"/>
@@ -13110,7 +13132,7 @@
       <c r="AT236" s="21"/>
     </row>
     <row r="237" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C237" s="36"/>
+      <c r="C237" s="31"/>
       <c r="E237" s="21"/>
       <c r="F237" s="21"/>
       <c r="G237" s="21"/>
@@ -13155,7 +13177,7 @@
       <c r="AT237" s="21"/>
     </row>
     <row r="238" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C238" s="36"/>
+      <c r="C238" s="31"/>
       <c r="E238" s="21"/>
       <c r="F238" s="21"/>
       <c r="G238" s="21"/>
@@ -13200,7 +13222,7 @@
       <c r="AT238" s="21"/>
     </row>
     <row r="239" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C239" s="36"/>
+      <c r="C239" s="31"/>
       <c r="E239" s="21"/>
       <c r="F239" s="21"/>
       <c r="G239" s="21"/>
@@ -13245,7 +13267,7 @@
       <c r="AT239" s="21"/>
     </row>
     <row r="240" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C240" s="36"/>
+      <c r="C240" s="31"/>
       <c r="E240" s="21"/>
       <c r="F240" s="21"/>
       <c r="G240" s="21"/>
@@ -13290,7 +13312,7 @@
       <c r="AT240" s="21"/>
     </row>
     <row r="241" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C241" s="36"/>
+      <c r="C241" s="31"/>
       <c r="E241" s="21"/>
       <c r="F241" s="21"/>
       <c r="G241" s="21"/>
@@ -13335,7 +13357,7 @@
       <c r="AT241" s="21"/>
     </row>
     <row r="242" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C242" s="36"/>
+      <c r="C242" s="31"/>
       <c r="E242" s="21"/>
       <c r="F242" s="21"/>
       <c r="G242" s="21"/>
@@ -13380,7 +13402,7 @@
       <c r="AT242" s="21"/>
     </row>
     <row r="243" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C243" s="36"/>
+      <c r="C243" s="31"/>
       <c r="E243" s="21"/>
       <c r="F243" s="21"/>
       <c r="G243" s="21"/>
@@ -13425,7 +13447,7 @@
       <c r="AT243" s="21"/>
     </row>
     <row r="244" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C244" s="36"/>
+      <c r="C244" s="31"/>
       <c r="E244" s="21"/>
       <c r="F244" s="21"/>
       <c r="G244" s="21"/>
@@ -13470,7 +13492,7 @@
       <c r="AT244" s="21"/>
     </row>
     <row r="245" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C245" s="36"/>
+      <c r="C245" s="31"/>
       <c r="E245" s="21"/>
       <c r="F245" s="21"/>
       <c r="G245" s="21"/>
@@ -13515,7 +13537,7 @@
       <c r="AT245" s="21"/>
     </row>
     <row r="246" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C246" s="36"/>
+      <c r="C246" s="31"/>
       <c r="E246" s="21"/>
       <c r="F246" s="21"/>
       <c r="G246" s="21"/>
@@ -13560,7 +13582,7 @@
       <c r="AT246" s="21"/>
     </row>
     <row r="247" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C247" s="36"/>
+      <c r="C247" s="31"/>
       <c r="E247" s="21"/>
       <c r="F247" s="21"/>
       <c r="G247" s="21"/>
@@ -13605,7 +13627,7 @@
       <c r="AT247" s="21"/>
     </row>
     <row r="248" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C248" s="36"/>
+      <c r="C248" s="31"/>
       <c r="E248" s="21"/>
       <c r="F248" s="21"/>
       <c r="G248" s="21"/>
@@ -13650,7 +13672,7 @@
       <c r="AT248" s="21"/>
     </row>
     <row r="249" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C249" s="36"/>
+      <c r="C249" s="31"/>
       <c r="E249" s="21"/>
       <c r="F249" s="21"/>
       <c r="G249" s="21"/>
@@ -13695,7 +13717,7 @@
       <c r="AT249" s="21"/>
     </row>
     <row r="250" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C250" s="36"/>
+      <c r="C250" s="31"/>
       <c r="E250" s="21"/>
       <c r="F250" s="21"/>
       <c r="G250" s="21"/>
@@ -13740,7 +13762,7 @@
       <c r="AT250" s="21"/>
     </row>
     <row r="251" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C251" s="36"/>
+      <c r="C251" s="31"/>
       <c r="E251" s="21"/>
       <c r="F251" s="21"/>
       <c r="G251" s="21"/>
@@ -13785,7 +13807,7 @@
       <c r="AT251" s="21"/>
     </row>
     <row r="252" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C252" s="36"/>
+      <c r="C252" s="31"/>
       <c r="E252" s="21"/>
       <c r="F252" s="21"/>
       <c r="G252" s="21"/>
@@ -13830,7 +13852,7 @@
       <c r="AT252" s="21"/>
     </row>
     <row r="253" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C253" s="36"/>
+      <c r="C253" s="31"/>
       <c r="E253" s="21"/>
       <c r="F253" s="21"/>
       <c r="G253" s="21"/>
@@ -13875,7 +13897,7 @@
       <c r="AT253" s="21"/>
     </row>
     <row r="254" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C254" s="36"/>
+      <c r="C254" s="31"/>
       <c r="E254" s="21"/>
       <c r="F254" s="21"/>
       <c r="G254" s="21"/>
@@ -13920,7 +13942,7 @@
       <c r="AT254" s="21"/>
     </row>
     <row r="255" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C255" s="36"/>
+      <c r="C255" s="31"/>
       <c r="E255" s="21"/>
       <c r="F255" s="21"/>
       <c r="G255" s="21"/>
@@ -13965,7 +13987,7 @@
       <c r="AT255" s="21"/>
     </row>
     <row r="256" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C256" s="36"/>
+      <c r="C256" s="31"/>
       <c r="E256" s="21"/>
       <c r="F256" s="21"/>
       <c r="G256" s="21"/>
@@ -14010,7 +14032,7 @@
       <c r="AT256" s="21"/>
     </row>
     <row r="257" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C257" s="36"/>
+      <c r="C257" s="31"/>
       <c r="E257" s="21"/>
       <c r="F257" s="21"/>
       <c r="G257" s="21"/>
@@ -14055,7 +14077,7 @@
       <c r="AT257" s="21"/>
     </row>
     <row r="258" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C258" s="36"/>
+      <c r="C258" s="31"/>
       <c r="E258" s="21"/>
       <c r="F258" s="21"/>
       <c r="G258" s="21"/>
@@ -14100,7 +14122,7 @@
       <c r="AT258" s="21"/>
     </row>
     <row r="259" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C259" s="36"/>
+      <c r="C259" s="31"/>
       <c r="E259" s="21"/>
       <c r="F259" s="21"/>
       <c r="G259" s="21"/>
@@ -14145,7 +14167,7 @@
       <c r="AT259" s="21"/>
     </row>
     <row r="260" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C260" s="36"/>
+      <c r="C260" s="31"/>
       <c r="E260" s="21"/>
       <c r="F260" s="21"/>
       <c r="G260" s="21"/>
@@ -14190,7 +14212,7 @@
       <c r="AT260" s="21"/>
     </row>
     <row r="261" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C261" s="36"/>
+      <c r="C261" s="31"/>
       <c r="E261" s="21"/>
       <c r="F261" s="21"/>
       <c r="G261" s="21"/>
@@ -14235,7 +14257,7 @@
       <c r="AT261" s="21"/>
     </row>
     <row r="262" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C262" s="36"/>
+      <c r="C262" s="31"/>
       <c r="E262" s="21"/>
       <c r="F262" s="21"/>
       <c r="G262" s="21"/>
@@ -14280,7 +14302,7 @@
       <c r="AT262" s="21"/>
     </row>
     <row r="263" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C263" s="36"/>
+      <c r="C263" s="31"/>
       <c r="E263" s="21"/>
       <c r="F263" s="21"/>
       <c r="G263" s="21"/>
@@ -14325,7 +14347,7 @@
       <c r="AT263" s="21"/>
     </row>
     <row r="264" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C264" s="36"/>
+      <c r="C264" s="31"/>
       <c r="E264" s="21"/>
       <c r="F264" s="21"/>
       <c r="G264" s="21"/>
@@ -14370,7 +14392,7 @@
       <c r="AT264" s="21"/>
     </row>
     <row r="265" spans="3:46" x14ac:dyDescent="0.2">
-      <c r="C265" s="36"/>
+      <c r="C265" s="31"/>
       <c r="E265" s="21"/>
       <c r="F265" s="21"/>
       <c r="G265" s="21"/>
